--- a/output_form/TABLE_INFO.xlsx
+++ b/output_form/TABLE_INFO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3 테이블정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이상민\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB1336-11FA-4D31-B561-8F6153B3EDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56050438-D663-4BC3-92FF-76D41154F0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33000" yWindow="1485" windowWidth="19620" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="코멘트(TBL_NM)" sheetId="1" r:id="rId1"/>
@@ -1201,6 +1201,57 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,6 +1259,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1241,129 +1364,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1671,62 +1671,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="100"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="100"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="14"/>
       <c r="D4" s="46" t="s">
         <v>6</v>
@@ -1743,14 +1743,14 @@
       <c r="J4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="9"/>
       <c r="D5" s="47" t="s">
         <v>69</v>
@@ -1763,8 +1763,8 @@
       <c r="J5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="99"/>
-      <c r="L5" s="100"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
@@ -1792,11 +1792,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="58"/>
-      <c r="J6" s="115" t="s">
+      <c r="J6" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
@@ -1818,11 +1818,11 @@
       <c r="G7" s="39"/>
       <c r="H7" s="41"/>
       <c r="I7" s="44"/>
-      <c r="J7" s="113" t="s">
+      <c r="J7" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="K7" s="113"/>
-      <c r="L7" s="114"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
@@ -1846,9 +1846,9 @@
       </c>
       <c r="H8" s="41"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
@@ -1868,9 +1868,9 @@
       <c r="G9" s="39"/>
       <c r="H9" s="41"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
@@ -1892,9 +1892,9 @@
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="104"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
@@ -1918,9 +1918,9 @@
         <v>100</v>
       </c>
       <c r="I11" s="44"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
@@ -1946,9 +1946,9 @@
         <v>83</v>
       </c>
       <c r="I12" s="44"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
@@ -1974,9 +1974,9 @@
         <v>84</v>
       </c>
       <c r="I13" s="44"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
@@ -2000,9 +2000,9 @@
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
@@ -2024,9 +2024,9 @@
       <c r="G15" s="45"/>
       <c r="H15" s="41"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="104"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
@@ -2048,9 +2048,9 @@
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="104"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
@@ -2066,9 +2066,9 @@
       <c r="G17" s="45"/>
       <c r="H17" s="41"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
@@ -2084,9 +2084,9 @@
       <c r="G18" s="45"/>
       <c r="H18" s="41"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="82"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
@@ -2102,9 +2102,9 @@
       <c r="G19" s="45"/>
       <c r="H19" s="41"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="82"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
@@ -2120,9 +2120,9 @@
       <c r="G20" s="45"/>
       <c r="H20" s="41"/>
       <c r="I20" s="44"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="82"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
@@ -2138,9 +2138,9 @@
       <c r="G21" s="45"/>
       <c r="H21" s="41"/>
       <c r="I21" s="44"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="82"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
@@ -2156,9 +2156,9 @@
       <c r="G22" s="45"/>
       <c r="H22" s="41"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="65"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="82"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
@@ -2182,11 +2182,11 @@
       </c>
       <c r="H23" s="41"/>
       <c r="I23" s="44"/>
-      <c r="J23" s="66" t="s">
+      <c r="J23" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="67"/>
-      <c r="L23" s="68"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="109"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
@@ -2212,11 +2212,11 @@
         <v>108</v>
       </c>
       <c r="I24" s="44"/>
-      <c r="J24" s="66" t="s">
+      <c r="J24" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="67"/>
-      <c r="L24" s="68"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="109"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
@@ -2240,11 +2240,11 @@
       </c>
       <c r="H25" s="41"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="66" t="s">
+      <c r="J25" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="109"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
@@ -2270,11 +2270,11 @@
         <v>108</v>
       </c>
       <c r="I26" s="44"/>
-      <c r="J26" s="66" t="s">
+      <c r="J26" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="K26" s="67"/>
-      <c r="L26" s="68"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="109"/>
     </row>
     <row r="27" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
@@ -2286,9 +2286,9 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="42"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="106"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
@@ -2305,20 +2305,20 @@
       <c r="L28" s="59"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="80"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="67"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="50"/>
@@ -2326,49 +2326,49 @@
         <v>48</v>
       </c>
       <c r="C30" s="48"/>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81" t="s">
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81" t="s">
+      <c r="H30" s="95"/>
+      <c r="I30" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="101"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="96"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="76"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="117"/>
     </row>
     <row r="32" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="106"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
     </row>
     <row r="33" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28"/>
@@ -2385,20 +2385,20 @@
       <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="80"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="67"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="52" t="s">
@@ -2425,12 +2425,12 @@
       <c r="H35" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="107" t="s">
+      <c r="I35" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="109"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
@@ -2447,10 +2447,10 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="84"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="94"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
@@ -2465,10 +2465,10 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="84"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="94"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
@@ -2479,10 +2479,10 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="84"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="94"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
@@ -2493,10 +2493,10 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="84"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
     </row>
     <row r="40" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="30"/>
@@ -2507,10 +2507,10 @@
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="71"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="112"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
@@ -2541,20 +2541,20 @@
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="74"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="115"/>
     </row>
     <row r="44" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="50"/>
@@ -2582,11 +2582,11 @@
       <c r="I44" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="91" t="s">
+      <c r="J44" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="K44" s="92"/>
-      <c r="L44" s="93"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="106"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
@@ -2598,9 +2598,9 @@
       <c r="G45" s="26"/>
       <c r="H45" s="61"/>
       <c r="I45" s="61"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="87"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="100"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
@@ -2612,9 +2612,9 @@
       <c r="G46" s="26"/>
       <c r="H46" s="15"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="87"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="100"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
@@ -2626,9 +2626,9 @@
       <c r="G47" s="26"/>
       <c r="H47" s="15"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="87"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="100"/>
     </row>
     <row r="48" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
@@ -2640,9 +2640,9 @@
       <c r="G48" s="27"/>
       <c r="H48" s="18"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="90"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="103"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -2660,6 +2660,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="I35:L35"/>
@@ -2676,46 +2716,6 @@
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
